--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.245403666666667</v>
+        <v>7.423863</v>
       </c>
       <c r="N2">
-        <v>18.736211</v>
+        <v>22.271589</v>
       </c>
       <c r="O2">
-        <v>0.1461562881451252</v>
+        <v>0.1690720838224332</v>
       </c>
       <c r="P2">
-        <v>0.1461562881451252</v>
+        <v>0.1690720838224332</v>
       </c>
       <c r="Q2">
-        <v>0.4285845812213333</v>
+        <v>0.174799803577</v>
       </c>
       <c r="R2">
-        <v>3.857261230992</v>
+        <v>1.573198232193</v>
       </c>
       <c r="S2">
-        <v>0.001192921551246793</v>
+        <v>0.0004760318173250832</v>
       </c>
       <c r="T2">
-        <v>0.001192921551246793</v>
+        <v>0.0004760318173250831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>64.657152</v>
       </c>
       <c r="O3">
-        <v>0.5043735544158399</v>
+        <v>0.4908369772207905</v>
       </c>
       <c r="P3">
-        <v>0.5043735544158399</v>
+        <v>0.4908369772207905</v>
       </c>
       <c r="Q3">
-        <v>1.479010799616</v>
+        <v>0.507465249536</v>
       </c>
       <c r="R3">
-        <v>13.311097196544</v>
+        <v>4.567187245824</v>
       </c>
       <c r="S3">
-        <v>0.004116675995111268</v>
+        <v>0.001381978698045485</v>
       </c>
       <c r="T3">
-        <v>0.004116675995111268</v>
+        <v>0.001381978698045485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>44.799623</v>
       </c>
       <c r="O4">
-        <v>0.3494701574390349</v>
+        <v>0.3400909389567762</v>
       </c>
       <c r="P4">
-        <v>0.3494701574390349</v>
+        <v>0.3400909389567762</v>
       </c>
       <c r="Q4">
-        <v>1.024776442917333</v>
+        <v>0.3516123299834445</v>
       </c>
       <c r="R4">
-        <v>9.222987986255998</v>
+        <v>3.164510969851</v>
       </c>
       <c r="S4">
-        <v>0.002852360905010704</v>
+        <v>0.0009575448771153507</v>
       </c>
       <c r="T4">
-        <v>0.002852360905010704</v>
+        <v>0.0009575448771153506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.245403666666667</v>
+        <v>7.423863</v>
       </c>
       <c r="N5">
-        <v>18.736211</v>
+        <v>22.271589</v>
       </c>
       <c r="O5">
-        <v>0.1461562881451252</v>
+        <v>0.1690720838224332</v>
       </c>
       <c r="P5">
-        <v>0.1461562881451252</v>
+        <v>0.1690720838224332</v>
       </c>
       <c r="Q5">
-        <v>51.54145324890612</v>
+        <v>61.266926553205</v>
       </c>
       <c r="R5">
-        <v>463.8730792401551</v>
+        <v>551.402338978845</v>
       </c>
       <c r="S5">
-        <v>0.1434603881175245</v>
+        <v>0.1668480501249378</v>
       </c>
       <c r="T5">
-        <v>0.1434603881175244</v>
+        <v>0.1668480501249377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>64.657152</v>
       </c>
       <c r="O6">
-        <v>0.5043735544158399</v>
+        <v>0.4908369772207905</v>
       </c>
       <c r="P6">
-        <v>0.5043735544158399</v>
+        <v>0.4908369772207905</v>
       </c>
       <c r="Q6">
         <v>177.86539535744</v>
@@ -818,10 +818,10 @@
         <v>1600.78855821696</v>
       </c>
       <c r="S6">
-        <v>0.4950702210011283</v>
+        <v>0.4843803348666195</v>
       </c>
       <c r="T6">
-        <v>0.4950702210011282</v>
+        <v>0.4843803348666195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>44.799623</v>
       </c>
       <c r="O7">
-        <v>0.3494701574390349</v>
+        <v>0.3400909389567762</v>
       </c>
       <c r="P7">
-        <v>0.3494701574390349</v>
+        <v>0.3400909389567762</v>
       </c>
       <c r="Q7">
         <v>123.2393077993794</v>
@@ -880,10 +880,10 @@
         <v>1109.153770194415</v>
       </c>
       <c r="S7">
-        <v>0.3430240673046847</v>
+        <v>0.3356172630467595</v>
       </c>
       <c r="T7">
-        <v>0.3430240673046847</v>
+        <v>0.3356172630467594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.245403666666667</v>
+        <v>7.423863</v>
       </c>
       <c r="N8">
-        <v>18.736211</v>
+        <v>22.271589</v>
       </c>
       <c r="O8">
-        <v>0.1461562881451252</v>
+        <v>0.1690720838224332</v>
       </c>
       <c r="P8">
-        <v>0.1461562881451252</v>
+        <v>0.1690720838224332</v>
       </c>
       <c r="Q8">
-        <v>0.5399796828212222</v>
+        <v>0.6418696696009999</v>
       </c>
       <c r="R8">
-        <v>4.859817145390999</v>
+        <v>5.776827026408999</v>
       </c>
       <c r="S8">
-        <v>0.00150297847635397</v>
+        <v>0.001748001880170412</v>
       </c>
       <c r="T8">
-        <v>0.00150297847635397</v>
+        <v>0.001748001880170412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>64.657152</v>
       </c>
       <c r="O9">
-        <v>0.5043735544158399</v>
+        <v>0.4908369772207905</v>
       </c>
       <c r="P9">
-        <v>0.5043735544158399</v>
+        <v>0.4908369772207905</v>
       </c>
       <c r="Q9">
         <v>1.863426304768</v>
@@ -1004,10 +1004,10 @@
         <v>16.770836742912</v>
       </c>
       <c r="S9">
-        <v>0.005186657419600314</v>
+        <v>0.005074663656125484</v>
       </c>
       <c r="T9">
-        <v>0.005186657419600314</v>
+        <v>0.005074663656125484</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>44.799623</v>
       </c>
       <c r="O10">
-        <v>0.3494701574390349</v>
+        <v>0.3400909389567762</v>
       </c>
       <c r="P10">
-        <v>0.3494701574390349</v>
+        <v>0.3400909389567762</v>
       </c>
       <c r="Q10">
         <v>1.291130112595889</v>
@@ -1066,10 +1066,10 @@
         <v>11.620171013363</v>
       </c>
       <c r="S10">
-        <v>0.0035937292293395</v>
+        <v>0.003516131032901407</v>
       </c>
       <c r="T10">
-        <v>0.0035937292293395</v>
+        <v>0.003516131032901407</v>
       </c>
     </row>
   </sheetData>
